--- a/Documentation/Risk Log.xlsx
+++ b/Documentation/Risk Log.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Project Name:</t>
   </si>
@@ -158,7 +158,19 @@
 certain user stories</t>
   </si>
   <si>
-    <t>Ensure that I get help if I need it</t>
+    <t>Ensure that I get help if I need it in future projects</t>
+  </si>
+  <si>
+    <t>Misunderstanding of what the system is required to do</t>
+  </si>
+  <si>
+    <t>There is a risk that I do not understand everything the system is meant to do</t>
+  </si>
+  <si>
+    <t>This will mean the system would not meet the reuirements</t>
+  </si>
+  <si>
+    <t>Make sure I understand the stories and ask for clarity in future projects</t>
   </si>
 </sst>
 </file>
@@ -350,13 +362,13 @@
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -583,7 +595,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="17.71"/>
-    <col customWidth="1" min="3" max="3" width="53.43"/>
+    <col customWidth="1" min="3" max="3" width="57.0"/>
     <col customWidth="1" min="4" max="4" width="94.86"/>
     <col customWidth="1" min="11" max="11" width="89.0"/>
     <col customWidth="1" min="12" max="12" width="31.86"/>
@@ -750,12 +762,12 @@
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="20"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="23" t="s">
+        <v>17</v>
+      </c>
       <c r="J7" s="18"/>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="24" t="s">
         <v>23</v>
       </c>
       <c r="L7" s="15" t="s">
@@ -780,12 +792,12 @@
         <v>28</v>
       </c>
       <c r="E8" s="19"/>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="19"/>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="23" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="22"/>
@@ -812,7 +824,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="19"/>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="22"/>
@@ -844,12 +856,12 @@
         <v>37</v>
       </c>
       <c r="E10" s="19"/>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="23" t="s">
         <v>17</v>
       </c>
       <c r="J10" s="22"/>
@@ -908,7 +920,7 @@
         <v>45</v>
       </c>
       <c r="E12" s="19"/>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="22"/>
@@ -930,18 +942,32 @@
       <c r="A13" s="14">
         <v>8.0</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="E13" s="19"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="18" t="s">
+        <v>17</v>
+      </c>
       <c r="H13" s="19"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="26"/>
+      <c r="J13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
+      <c r="M13" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="N13" s="6"/>
     </row>
     <row r="14">
